--- a/99_Others/Bug_Management.xlsx
+++ b/99_Others/Bug_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\portfolio\99_Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A16E0CC-9EAC-4568-8444-E4711E29EA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6FE688-DBEA-4289-8F4D-096DBF665E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CEC575C-2CE2-4A91-9FC5-0346F782D22B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -82,19 +82,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>v1.0.0リリース後に発見したバグを管理する。</t>
-    <rPh sb="10" eb="11">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハッケン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -318,6 +305,94 @@
     </rPh>
     <rPh sb="195" eb="196">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィンドウスナップ時にプログラムで起動させたアプリではなく、最前面に表示されたウィンドウを強制終了してしまう。
+【事象再現方法】
+1)startupfiles.exe起動
+2)exeによってアプリが起動したあとに、関係ないアプリを最前面にする
+3)exeによって最前面のアプリが強制終了する</t>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ゼンメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ゼンメン</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ゼンメン</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コールバック関数などでウィンドウを特定して、キーを送る処理を追加する必要がある。</t>
+    <rPh sb="6" eb="8">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発見したバグを管理する。</t>
+    <rPh sb="0" eb="2">
+      <t>ハッケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -372,12 +447,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -400,13 +475,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -422,19 +525,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -778,7 +890,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -801,86 +913,98 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" s="3"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="K6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="225.75" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="11">
+        <v>46024</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="225" x14ac:dyDescent="0.4">
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="6">
-        <v>46024</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="J7" s="8">
         <v>0.5</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="2:12" ht="131.25" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5">
+        <v>46026</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.5</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
@@ -888,7 +1012,7 @@
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -903,7 +1027,7 @@
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -918,7 +1042,7 @@
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -933,7 +1057,7 @@
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -948,7 +1072,7 @@
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -963,7 +1087,7 @@
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -978,7 +1102,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -993,7 +1117,7 @@
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1007,7 +1131,7 @@
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" t="str">
         <f ca="1">_xlfn.CONCAT("PDF出力・印刷日："&amp;TEXT(TODAY(),"YYYY/MM/DD"))</f>
-        <v>PDF出力・印刷日：2026/01/02</v>
+        <v>PDF出力・印刷日：2026/01/04</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
